--- a/data/trans_dic/P2B_3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2B_3-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con movilidad a otra vivienda por motivos de cuidados de familiares</t>
+          <t>Población con movilidad a otra vivienda por motivos de cuidados de familiares (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -611,22 +612,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>0,66%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,65</t>
+          <t>0,0; 3,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,36</t>
+          <t>0,0; 4,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,04</t>
+          <t>0,0; 2,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,34</t>
+          <t>0,0; 2,22</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,37%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>1,32%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,29</t>
+          <t>0,0; 2,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,79</t>
+          <t>0,0; 3,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,38; 60,24</t>
+          <t>0,46; 4,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,65; 50,84</t>
+          <t>0,5; 4,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,07; 41,49</t>
+          <t>0,49; 2,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,25; 31,4</t>
+          <t>0,51; 2,76</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>46,06%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>0,73%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,96</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,73; 86,79</t>
+          <t>0,38; 3,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,0</t>
+          <t>0,0; 1,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,65</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 22,36</t>
+          <t>0,12; 1,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,5; 70,35</t>
+          <t>0,2; 1,92</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,36%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,78%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>63,3%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>44,64%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,55%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,39; 58,03</t>
+          <t>0,68; 3,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,98; 60,68</t>
+          <t>0,69; 3,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,69; 90,9</t>
+          <t>0,62; 3,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,43; 60,84</t>
+          <t>1,0; 4,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,39; 63,37</t>
+          <t>1,03; 3,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,6; 49,73</t>
+          <t>1,07; 3,58</t>
         </is>
       </c>
     </row>
@@ -926,27 +927,27 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>22,14%</t>
+          <t>0,87%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,57</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,49; 47,92</t>
+          <t>0,38; 3,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,8; 53,69</t>
+          <t>0,41; 3,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,47; 43,04</t>
+          <t>0,19; 1,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,59; 46,64</t>
+          <t>0,22; 2,16</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1002,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1011,22 +1012,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>0,92%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,22</t>
+          <t>0,0; 2,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,12; 49,45</t>
+          <t>0,31; 2,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,5; 44,13</t>
+          <t>0,4; 3,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,09; 32,7</t>
+          <t>0,35; 2,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,7; 33,79</t>
+          <t>0,23; 2,17</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>1,12%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,18; 21,19</t>
+          <t>0,33; 1,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,86; 47,71</t>
+          <t>0,45; 1,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,7; 37,44</t>
+          <t>0,81; 1,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,77; 29,35</t>
+          <t>0,89; 2,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,66; 25,84</t>
+          <t>0,66; 1,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,84; 36,52</t>
+          <t>0,77; 1,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con movilidad a otra vivienda por motivos de cuidados de familiares (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5774</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6372</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5774</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6372</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18442</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19913</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 22111</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21530</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5156</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6238</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9450</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8211</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14606</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14449</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16669</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 20706</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2401; 23079</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2602; 22649</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5294; 31350</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5551; 30190</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2285</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8388</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3485</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1778</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5770</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10165</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11506</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2605; 25412</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12390</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8949</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1581; 15989</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2757; 26908</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>12294</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>11639</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12469</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>16203</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>24763</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>27842</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4354; 24768</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4453; 24134</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4386; 24590</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6883; 32318</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>13836; 42828</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>14255; 47734</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2037</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6060</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6725</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6060</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8762</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9978</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1908; 16328</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2106; 19839</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1924; 18115</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2217; 21712</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2432</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>8986</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>11625</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>11418</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>11625</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13493</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2238; 20879</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2886; 26708</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4406; 25714</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2908; 27380</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>22168</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>28302</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>46224</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>50913</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>68391</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>79215</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>11333; 39246</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>15489; 51185</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>29423; 69037</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>32331; 77352</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>46348; 95863</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>54647; 112617</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>